--- a/DataSets/anomalyDataTrain.xlsx
+++ b/DataSets/anomalyDataTrain.xlsx
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -494,27 +494,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>13.02.2024</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1170383739789618</v>
+        <v>-0.09727973916397115</v>
       </c>
     </row>
   </sheetData>
